--- a/user_file.xlsx
+++ b/user_file.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dchristi/PycharmProjects/ISE-UpdateUser/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="240" yWindow="620" windowWidth="28560" windowHeight="17380"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>First</t>
   </si>
@@ -110,28 +123,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="11"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -147,17 +159,23 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -445,25 +463,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="150" zoomScaleNormal="150">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="3" min="3" width="18.5"/>
-    <col customWidth="1" max="4" min="4" width="22.1640625"/>
-    <col customWidth="1" max="5" min="5" width="14.33203125"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,7 +494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -497,7 +511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -514,7 +528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -531,7 +545,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -548,7 +562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -566,25 +580,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>